--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H2">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I2">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J2">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N2">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O2">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P2">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q2">
-        <v>15.46114359107641</v>
+        <v>37.603423574896</v>
       </c>
       <c r="R2">
-        <v>15.46114359107641</v>
+        <v>338.430812174064</v>
       </c>
       <c r="S2">
-        <v>0.0004333914501395059</v>
+        <v>0.0009838771093189805</v>
       </c>
       <c r="T2">
-        <v>0.0004333914501395059</v>
+        <v>0.0009838771093189805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H3">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I3">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J3">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N3">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O3">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P3">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q3">
-        <v>40.5555261616102</v>
+        <v>87.434779344304</v>
       </c>
       <c r="R3">
-        <v>40.5555261616102</v>
+        <v>786.913014098736</v>
       </c>
       <c r="S3">
-        <v>0.001136812305688395</v>
+        <v>0.002287692709252329</v>
       </c>
       <c r="T3">
-        <v>0.001136812305688395</v>
+        <v>0.002287692709252329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H4">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I4">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J4">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N4">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O4">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P4">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q4">
-        <v>43.32623339072145</v>
+        <v>100.803077026528</v>
       </c>
       <c r="R4">
-        <v>43.32623339072145</v>
+        <v>907.227693238752</v>
       </c>
       <c r="S4">
-        <v>0.00121447802406576</v>
+        <v>0.002637468363426619</v>
       </c>
       <c r="T4">
-        <v>0.00121447802406576</v>
+        <v>0.002637468363426619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H5">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I5">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J5">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N5">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O5">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P5">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q5">
-        <v>54.92712264259619</v>
+        <v>123.55982236676</v>
       </c>
       <c r="R5">
-        <v>54.92712264259619</v>
+        <v>1112.03840130084</v>
       </c>
       <c r="S5">
-        <v>0.001539662651332246</v>
+        <v>0.003232888638877365</v>
       </c>
       <c r="T5">
-        <v>0.001539662651332246</v>
+        <v>0.003232888638877365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H6">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I6">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J6">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N6">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O6">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P6">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q6">
-        <v>32.37641947590512</v>
+        <v>71.34511566179199</v>
       </c>
       <c r="R6">
-        <v>32.37641947590512</v>
+        <v>642.1060409561279</v>
       </c>
       <c r="S6">
-        <v>0.0009075436952209676</v>
+        <v>0.001866713705509895</v>
       </c>
       <c r="T6">
-        <v>0.0009075436952209676</v>
+        <v>0.001866713705509895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H7">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I7">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J7">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N7">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O7">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P7">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q7">
-        <v>10.43201521960478</v>
+        <v>24.756910697752</v>
       </c>
       <c r="R7">
-        <v>10.43201521960478</v>
+        <v>222.812196279768</v>
       </c>
       <c r="S7">
-        <v>0.0002924199091269905</v>
+        <v>0.000647753726052582</v>
       </c>
       <c r="T7">
-        <v>0.0002924199091269905</v>
+        <v>0.0006477537260525819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H8">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I8">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J8">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N8">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O8">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P8">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q8">
-        <v>2556.461812857095</v>
+        <v>2911.380672643616</v>
       </c>
       <c r="R8">
-        <v>2556.461812857095</v>
+        <v>26202.42605379255</v>
       </c>
       <c r="S8">
-        <v>0.07166020325559057</v>
+        <v>0.07617500025290377</v>
       </c>
       <c r="T8">
-        <v>0.07166020325559057</v>
+        <v>0.07617500025290377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H9">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I9">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J9">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N9">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O9">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P9">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q9">
-        <v>6705.755840229231</v>
+        <v>6769.488054534673</v>
       </c>
       <c r="R9">
-        <v>6705.755840229231</v>
+        <v>60925.39249081205</v>
       </c>
       <c r="S9">
-        <v>0.1879691001353721</v>
+        <v>0.1771206902318166</v>
       </c>
       <c r="T9">
-        <v>0.1879691001353721</v>
+        <v>0.1771206902318166</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H10">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I10">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J10">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N10">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O10">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P10">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q10">
-        <v>7163.88542062574</v>
+        <v>7804.50560873834</v>
       </c>
       <c r="R10">
-        <v>7163.88542062574</v>
+        <v>70240.55047864506</v>
       </c>
       <c r="S10">
-        <v>0.2008109343781148</v>
+        <v>0.2042014712488977</v>
       </c>
       <c r="T10">
-        <v>0.2008109343781148</v>
+        <v>0.2042014712488977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H11">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I11">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J11">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N11">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O11">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P11">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q11">
-        <v>9082.063736020154</v>
+        <v>9566.407644702293</v>
       </c>
       <c r="R11">
-        <v>9082.063736020154</v>
+        <v>86097.66880232064</v>
       </c>
       <c r="S11">
-        <v>0.2545794073786986</v>
+        <v>0.2503008663902678</v>
       </c>
       <c r="T11">
-        <v>0.2545794073786986</v>
+        <v>0.2503008663902678</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H12">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I12">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J12">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N12">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O12">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P12">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q12">
-        <v>5353.360800229899</v>
+        <v>5523.773398226788</v>
       </c>
       <c r="R12">
-        <v>5353.360800229899</v>
+        <v>49713.96058404109</v>
       </c>
       <c r="S12">
-        <v>0.1500601030360197</v>
+        <v>0.1445271118135281</v>
       </c>
       <c r="T12">
-        <v>0.1500601030360197</v>
+        <v>0.1445271118135281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H13">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I13">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J13">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N13">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O13">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P13">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q13">
-        <v>1724.907888149751</v>
+        <v>1916.761413392092</v>
       </c>
       <c r="R13">
-        <v>1724.907888149751</v>
+        <v>17250.85272052883</v>
       </c>
       <c r="S13">
-        <v>0.04835090797770981</v>
+        <v>0.05015122293070601</v>
       </c>
       <c r="T13">
-        <v>0.04835090797770981</v>
+        <v>0.050151222930706</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>7.2443732888851</v>
+        <v>0.005360666666666666</v>
       </c>
       <c r="H14">
-        <v>7.2443732888851</v>
+        <v>0.016082</v>
       </c>
       <c r="I14">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="J14">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N14">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O14">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P14">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q14">
-        <v>226.8245955554719</v>
+        <v>0.1899356068671111</v>
       </c>
       <c r="R14">
-        <v>226.8245955554719</v>
+        <v>1.709420461804</v>
       </c>
       <c r="S14">
-        <v>0.00635812220590398</v>
+        <v>4.9695819708798E-06</v>
       </c>
       <c r="T14">
-        <v>0.00635812220590398</v>
+        <v>4.9695819708798E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>7.2443732888851</v>
+        <v>0.005360666666666666</v>
       </c>
       <c r="H15">
-        <v>7.2443732888851</v>
+        <v>0.016082</v>
       </c>
       <c r="I15">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="J15">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N15">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O15">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P15">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q15">
-        <v>594.9748002117971</v>
+        <v>0.4416347315551111</v>
       </c>
       <c r="R15">
-        <v>594.9748002117971</v>
+        <v>3.974712583995999</v>
       </c>
       <c r="S15">
-        <v>0.01667774378662901</v>
+        <v>1.155517933604822E-05</v>
       </c>
       <c r="T15">
-        <v>0.01667774378662901</v>
+        <v>1.155517933604822E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>7.2443732888851</v>
+        <v>0.005360666666666666</v>
       </c>
       <c r="H16">
-        <v>7.2443732888851</v>
+        <v>0.016082</v>
       </c>
       <c r="I16">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="J16">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N16">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O16">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P16">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q16">
-        <v>635.6227990447235</v>
+        <v>0.509158257119111</v>
       </c>
       <c r="R16">
-        <v>635.6227990447235</v>
+        <v>4.582424314072</v>
       </c>
       <c r="S16">
-        <v>0.01781714819456935</v>
+        <v>1.332190281032481E-05</v>
       </c>
       <c r="T16">
-        <v>0.01781714819456935</v>
+        <v>1.332190281032481E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>7.2443732888851</v>
+        <v>0.005360666666666666</v>
       </c>
       <c r="H17">
-        <v>7.2443732888851</v>
+        <v>0.016082</v>
       </c>
       <c r="I17">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="J17">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N17">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O17">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P17">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q17">
-        <v>805.8150618058711</v>
+        <v>0.6241030101655555</v>
       </c>
       <c r="R17">
-        <v>805.8150618058711</v>
+        <v>5.61692709149</v>
       </c>
       <c r="S17">
-        <v>0.02258780898858391</v>
+        <v>1.632938193342837E-05</v>
       </c>
       <c r="T17">
-        <v>0.02258780898858391</v>
+        <v>1.632938193342837E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>7.2443732888851</v>
+        <v>0.005360666666666666</v>
       </c>
       <c r="H18">
-        <v>7.2443732888851</v>
+        <v>0.016082</v>
       </c>
       <c r="I18">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="J18">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N18">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O18">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P18">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q18">
-        <v>474.9822165415389</v>
+        <v>0.3603655346231111</v>
       </c>
       <c r="R18">
-        <v>474.9822165415389</v>
+        <v>3.243289811608</v>
       </c>
       <c r="S18">
-        <v>0.01331423063273439</v>
+        <v>9.428806390380804E-06</v>
       </c>
       <c r="T18">
-        <v>0.01331423063273439</v>
+        <v>9.428806390380804E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.005360666666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.016082</v>
+      </c>
+      <c r="I19">
+        <v>5.887666881738698E-05</v>
+      </c>
+      <c r="J19">
+        <v>5.887666881738698E-05</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.32687966666667</v>
+      </c>
+      <c r="N19">
+        <v>69.980639</v>
+      </c>
+      <c r="O19">
+        <v>0.05557067752037586</v>
+      </c>
+      <c r="P19">
+        <v>0.05557067752037585</v>
+      </c>
+      <c r="Q19">
+        <v>0.1250476262664444</v>
+      </c>
+      <c r="R19">
+        <v>1.125428636398</v>
+      </c>
+      <c r="S19">
+        <v>3.271816376324981E-06</v>
+      </c>
+      <c r="T19">
+        <v>3.271816376324981E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.218341</v>
+      </c>
+      <c r="I20">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J20">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>35.43134066666666</v>
+      </c>
+      <c r="N20">
+        <v>106.294022</v>
+      </c>
+      <c r="O20">
+        <v>0.0844066430846071</v>
+      </c>
+      <c r="P20">
+        <v>0.0844066430846071</v>
+      </c>
+      <c r="Q20">
+        <v>2.578704784166889</v>
+      </c>
+      <c r="R20">
+        <v>23.208343057502</v>
+      </c>
+      <c r="S20">
+        <v>6.747068132718981E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.747068132718981E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.218341</v>
+      </c>
+      <c r="I21">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J21">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>82.38429266666667</v>
+      </c>
+      <c r="N21">
+        <v>247.152878</v>
+      </c>
+      <c r="O21">
+        <v>0.1962607526571856</v>
+      </c>
+      <c r="P21">
+        <v>0.1962607526571856</v>
+      </c>
+      <c r="Q21">
+        <v>5.995956281710889</v>
+      </c>
+      <c r="R21">
+        <v>53.963606535398</v>
+      </c>
+      <c r="S21">
+        <v>0.000156881570166155</v>
+      </c>
+      <c r="T21">
+        <v>0.000156881570166155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.218341</v>
+      </c>
+      <c r="I22">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J22">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>94.98039866666666</v>
+      </c>
+      <c r="N22">
+        <v>284.941196</v>
+      </c>
+      <c r="O22">
+        <v>0.2262679441264634</v>
+      </c>
+      <c r="P22">
+        <v>0.2262679441264634</v>
+      </c>
+      <c r="Q22">
+        <v>6.912705075092888</v>
+      </c>
+      <c r="R22">
+        <v>62.214345675836</v>
+      </c>
+      <c r="S22">
+        <v>0.0001808679008524518</v>
+      </c>
+      <c r="T22">
+        <v>0.0001808679008524518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.218341</v>
+      </c>
+      <c r="I23">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J23">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>116.4226483333333</v>
+      </c>
+      <c r="N23">
+        <v>349.267945</v>
+      </c>
+      <c r="O23">
+        <v>0.2773489441815381</v>
+      </c>
+      <c r="P23">
+        <v>0.2773489441815381</v>
+      </c>
+      <c r="Q23">
+        <v>8.473279153249445</v>
+      </c>
+      <c r="R23">
+        <v>76.259512379245</v>
+      </c>
+      <c r="S23">
+        <v>0.0002216996381498995</v>
+      </c>
+      <c r="T23">
+        <v>0.0002216996381498995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.218341</v>
+      </c>
+      <c r="I24">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J24">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>67.22401466666666</v>
+      </c>
+      <c r="N24">
+        <v>201.672044</v>
+      </c>
+      <c r="O24">
+        <v>0.1601450384298299</v>
+      </c>
+      <c r="P24">
+        <v>0.1601450384298299</v>
+      </c>
+      <c r="Q24">
+        <v>4.892586195444888</v>
+      </c>
+      <c r="R24">
+        <v>44.033275759004</v>
+      </c>
+      <c r="S24">
+        <v>0.0001280123750828339</v>
+      </c>
+      <c r="T24">
+        <v>0.0001280123750828339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.218341</v>
+      </c>
+      <c r="I25">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J25">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.32687966666667</v>
+      </c>
+      <c r="N25">
+        <v>69.980639</v>
+      </c>
+      <c r="O25">
+        <v>0.05557067752037586</v>
+      </c>
+      <c r="P25">
+        <v>0.05557067752037585</v>
+      </c>
+      <c r="Q25">
+        <v>1.697738077766556</v>
+      </c>
+      <c r="R25">
+        <v>15.279642699899</v>
+      </c>
+      <c r="S25">
+        <v>4.442057327590926E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.442057327590926E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H26">
+        <v>23.219978</v>
+      </c>
+      <c r="I26">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J26">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>35.43134066666666</v>
+      </c>
+      <c r="N26">
+        <v>106.294022</v>
+      </c>
+      <c r="O26">
+        <v>0.0844066430846071</v>
+      </c>
+      <c r="P26">
+        <v>0.0844066430846071</v>
+      </c>
+      <c r="Q26">
+        <v>274.2383169301684</v>
+      </c>
+      <c r="R26">
+        <v>2468.144852371516</v>
+      </c>
+      <c r="S26">
+        <v>0.007175325459086282</v>
+      </c>
+      <c r="T26">
+        <v>0.007175325459086282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H27">
+        <v>23.219978</v>
+      </c>
+      <c r="I27">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J27">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>82.38429266666667</v>
+      </c>
+      <c r="N27">
+        <v>247.152878</v>
+      </c>
+      <c r="O27">
+        <v>0.1962607526571856</v>
+      </c>
+      <c r="P27">
+        <v>0.1962607526571856</v>
+      </c>
+      <c r="Q27">
+        <v>637.6538210885204</v>
+      </c>
+      <c r="R27">
+        <v>5738.884389796684</v>
+      </c>
+      <c r="S27">
+        <v>0.01668393296661449</v>
+      </c>
+      <c r="T27">
+        <v>0.01668393296661449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.2443732888851</v>
-      </c>
-      <c r="H19">
-        <v>7.2443732888851</v>
-      </c>
-      <c r="I19">
-        <v>0.08104503580292068</v>
-      </c>
-      <c r="J19">
-        <v>0.08104503580292068</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>21.12593421067</v>
-      </c>
-      <c r="N19">
-        <v>21.12593421067</v>
-      </c>
-      <c r="O19">
-        <v>0.05293330988133684</v>
-      </c>
-      <c r="P19">
-        <v>0.05293330988133684</v>
-      </c>
-      <c r="Q19">
-        <v>153.0441534985217</v>
-      </c>
-      <c r="R19">
-        <v>153.0441534985217</v>
-      </c>
-      <c r="S19">
-        <v>0.004289981994500039</v>
-      </c>
-      <c r="T19">
-        <v>0.004289981994500039</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H28">
+        <v>23.219978</v>
+      </c>
+      <c r="I28">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J28">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>94.98039866666666</v>
+      </c>
+      <c r="N28">
+        <v>284.941196</v>
+      </c>
+      <c r="O28">
+        <v>0.2262679441264634</v>
+      </c>
+      <c r="P28">
+        <v>0.2262679441264634</v>
+      </c>
+      <c r="Q28">
+        <v>735.1475891570763</v>
+      </c>
+      <c r="R28">
+        <v>6616.328302413687</v>
+      </c>
+      <c r="S28">
+        <v>0.01923481471047633</v>
+      </c>
+      <c r="T28">
+        <v>0.01923481471047633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H29">
+        <v>23.219978</v>
+      </c>
+      <c r="I29">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J29">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>116.4226483333333</v>
+      </c>
+      <c r="N29">
+        <v>349.267945</v>
+      </c>
+      <c r="O29">
+        <v>0.2773489441815381</v>
+      </c>
+      <c r="P29">
+        <v>0.2773489441815381</v>
+      </c>
+      <c r="Q29">
+        <v>901.110444333912</v>
+      </c>
+      <c r="R29">
+        <v>8109.993999005209</v>
+      </c>
+      <c r="S29">
+        <v>0.02357716013230967</v>
+      </c>
+      <c r="T29">
+        <v>0.02357716013230967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H30">
+        <v>23.219978</v>
+      </c>
+      <c r="I30">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J30">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>67.22401466666666</v>
+      </c>
+      <c r="N30">
+        <v>201.672044</v>
+      </c>
+      <c r="O30">
+        <v>0.1601450384298299</v>
+      </c>
+      <c r="P30">
+        <v>0.1601450384298299</v>
+      </c>
+      <c r="Q30">
+        <v>520.3133805438923</v>
+      </c>
+      <c r="R30">
+        <v>4682.820424895031</v>
+      </c>
+      <c r="S30">
+        <v>0.0136137717293186</v>
+      </c>
+      <c r="T30">
+        <v>0.0136137717293186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H31">
+        <v>23.219978</v>
+      </c>
+      <c r="I31">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J31">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.32687966666667</v>
+      </c>
+      <c r="N31">
+        <v>69.980639</v>
+      </c>
+      <c r="O31">
+        <v>0.05557067752037586</v>
+      </c>
+      <c r="P31">
+        <v>0.05557067752037585</v>
+      </c>
+      <c r="Q31">
+        <v>180.5498775562158</v>
+      </c>
+      <c r="R31">
+        <v>1624.948898005942</v>
+      </c>
+      <c r="S31">
+        <v>0.004724008473965041</v>
+      </c>
+      <c r="T31">
+        <v>0.00472400847396504</v>
       </c>
     </row>
   </sheetData>
